--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.97917533333333</v>
+        <v>19.750268</v>
       </c>
       <c r="H2">
-        <v>62.93752600000001</v>
+        <v>59.250804</v>
       </c>
       <c r="I2">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="J2">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.521994666666667</v>
+        <v>0.6340813333333334</v>
       </c>
       <c r="N2">
-        <v>7.565984</v>
+        <v>1.902244</v>
       </c>
       <c r="O2">
-        <v>0.01218715015226367</v>
+        <v>0.003487630722257058</v>
       </c>
       <c r="P2">
-        <v>0.01218715015226367</v>
+        <v>0.003487630722257058</v>
       </c>
       <c r="Q2">
-        <v>52.90936830173155</v>
+        <v>12.52327626713067</v>
       </c>
       <c r="R2">
-        <v>476.184314715584</v>
+        <v>112.709486404176</v>
       </c>
       <c r="S2">
-        <v>0.002988157910008404</v>
+        <v>0.0007459653307114347</v>
       </c>
       <c r="T2">
-        <v>0.002988157910008405</v>
+        <v>0.0007459653307114346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.97917533333333</v>
+        <v>19.750268</v>
       </c>
       <c r="H3">
-        <v>62.93752600000001</v>
+        <v>59.250804</v>
       </c>
       <c r="I3">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="J3">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>471.493576</v>
       </c>
       <c r="O3">
-        <v>0.7594733225102963</v>
+        <v>0.8644503444376447</v>
       </c>
       <c r="P3">
-        <v>0.7594733225102963</v>
+        <v>0.8644503444376448</v>
       </c>
       <c r="Q3">
-        <v>3297.182133148108</v>
+        <v>3104.041495426122</v>
       </c>
       <c r="R3">
-        <v>29674.63919833298</v>
+        <v>27936.3734588351</v>
       </c>
       <c r="S3">
-        <v>0.1862146759288083</v>
+        <v>0.1848962916161948</v>
       </c>
       <c r="T3">
-        <v>0.1862146759288083</v>
+        <v>0.1848962916161949</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.97917533333333</v>
+        <v>19.750268</v>
       </c>
       <c r="H4">
-        <v>62.93752600000001</v>
+        <v>59.250804</v>
       </c>
       <c r="I4">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="J4">
-        <v>0.2451892257562263</v>
+        <v>0.2138888518073023</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.252316</v>
+        <v>24.01001466666667</v>
       </c>
       <c r="N4">
-        <v>141.756948</v>
+        <v>72.030044</v>
       </c>
       <c r="O4">
-        <v>0.2283395273374399</v>
+        <v>0.1320620248400982</v>
       </c>
       <c r="P4">
-        <v>0.2283395273374399</v>
+        <v>0.1320620248400982</v>
       </c>
       <c r="Q4">
-        <v>991.3146222700721</v>
+        <v>474.2042243505973</v>
       </c>
       <c r="R4">
-        <v>8921.831600430649</v>
+        <v>4267.838019155376</v>
       </c>
       <c r="S4">
-        <v>0.05598639191740955</v>
+        <v>0.02824659486039603</v>
       </c>
       <c r="T4">
-        <v>0.05598639191740955</v>
+        <v>0.02824659486039603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>177.158558</v>
       </c>
       <c r="I5">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="J5">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.521994666666667</v>
+        <v>0.6340813333333334</v>
       </c>
       <c r="N5">
-        <v>7.565984</v>
+        <v>1.902244</v>
       </c>
       <c r="O5">
-        <v>0.01218715015226367</v>
+        <v>0.003487630722257058</v>
       </c>
       <c r="P5">
-        <v>0.01218715015226367</v>
+        <v>0.003487630722257058</v>
       </c>
       <c r="Q5">
-        <v>148.9309794767858</v>
+        <v>37.44431155601689</v>
       </c>
       <c r="R5">
-        <v>1340.378815291072</v>
+        <v>336.998804004152</v>
       </c>
       <c r="S5">
-        <v>0.008411162307418672</v>
+        <v>0.002230419393242848</v>
       </c>
       <c r="T5">
-        <v>0.008411162307418672</v>
+        <v>0.002230419393242848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>177.158558</v>
       </c>
       <c r="I6">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="J6">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>471.493576</v>
       </c>
       <c r="O6">
-        <v>0.7594733225102963</v>
+        <v>0.8644503444376447</v>
       </c>
       <c r="P6">
-        <v>0.7594733225102963</v>
+        <v>0.8644503444376448</v>
       </c>
       <c r="Q6">
         <v>9281.013558935934</v>
       </c>
       <c r="R6">
-        <v>83529.1220304234</v>
+        <v>83529.12203042342</v>
       </c>
       <c r="S6">
-        <v>0.5241630162899156</v>
+        <v>0.5528357117697942</v>
       </c>
       <c r="T6">
-        <v>0.5241630162899156</v>
+        <v>0.5528357117697942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>177.158558</v>
       </c>
       <c r="I7">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="J7">
-        <v>0.6901664624076501</v>
+        <v>0.6395228081370402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.252316</v>
+        <v>24.01001466666667</v>
       </c>
       <c r="N7">
-        <v>141.756948</v>
+        <v>72.030044</v>
       </c>
       <c r="O7">
-        <v>0.2283395273374399</v>
+        <v>0.1320620248400982</v>
       </c>
       <c r="P7">
-        <v>0.2283395273374399</v>
+        <v>0.1320620248400982</v>
       </c>
       <c r="Q7">
-        <v>2790.384054906776</v>
+        <v>1417.859858635172</v>
       </c>
       <c r="R7">
-        <v>25113.45649416098</v>
+        <v>12760.73872771655</v>
       </c>
       <c r="S7">
-        <v>0.1575922838103158</v>
+        <v>0.08445667697400314</v>
       </c>
       <c r="T7">
-        <v>0.1575922838103158</v>
+        <v>0.08445667697400314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.531174333333333</v>
+        <v>13.53581066666667</v>
       </c>
       <c r="H8">
-        <v>16.593523</v>
+        <v>40.607432</v>
       </c>
       <c r="I8">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="J8">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.521994666666667</v>
+        <v>0.6340813333333334</v>
       </c>
       <c r="N8">
-        <v>7.565984</v>
+        <v>1.902244</v>
       </c>
       <c r="O8">
-        <v>0.01218715015226367</v>
+        <v>0.003487630722257058</v>
       </c>
       <c r="P8">
-        <v>0.01218715015226367</v>
+        <v>0.003487630722257058</v>
       </c>
       <c r="Q8">
-        <v>13.94959216907022</v>
+        <v>8.582804875267557</v>
       </c>
       <c r="R8">
-        <v>125.546329521632</v>
+        <v>77.245243877408</v>
       </c>
       <c r="S8">
-        <v>0.0007878299348365931</v>
+        <v>0.0005112459983027757</v>
       </c>
       <c r="T8">
-        <v>0.0007878299348365932</v>
+        <v>0.0005112459983027757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.531174333333333</v>
+        <v>13.53581066666667</v>
       </c>
       <c r="H9">
-        <v>16.593523</v>
+        <v>40.607432</v>
       </c>
       <c r="I9">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="J9">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>471.493576</v>
       </c>
       <c r="O9">
-        <v>0.7594733225102963</v>
+        <v>0.8644503444376447</v>
       </c>
       <c r="P9">
-        <v>0.7594733225102963</v>
+        <v>0.8644503444376448</v>
       </c>
       <c r="Q9">
-        <v>869.3043886342498</v>
+        <v>2127.349258428537</v>
       </c>
       <c r="R9">
-        <v>7823.739497708248</v>
+        <v>19146.14332585684</v>
       </c>
       <c r="S9">
-        <v>0.04909563029157242</v>
+        <v>0.1267183410516557</v>
       </c>
       <c r="T9">
-        <v>0.04909563029157242</v>
+        <v>0.1267183410516557</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.531174333333333</v>
+        <v>13.53581066666667</v>
       </c>
       <c r="H10">
-        <v>16.593523</v>
+        <v>40.607432</v>
       </c>
       <c r="I10">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="J10">
-        <v>0.06464431183612354</v>
+        <v>0.1465883400556574</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.252316</v>
+        <v>24.01001466666667</v>
       </c>
       <c r="N10">
-        <v>141.756948</v>
+        <v>72.030044</v>
       </c>
       <c r="O10">
-        <v>0.2283395273374399</v>
+        <v>0.1320620248400982</v>
       </c>
       <c r="P10">
-        <v>0.2283395273374399</v>
+        <v>0.1320620248400982</v>
       </c>
       <c r="Q10">
-        <v>261.360797449756</v>
+        <v>324.9950126318898</v>
       </c>
       <c r="R10">
-        <v>2352.247177047804</v>
+        <v>2924.955113687008</v>
       </c>
       <c r="S10">
-        <v>0.01476085160971452</v>
+        <v>0.01935875300569899</v>
       </c>
       <c r="T10">
-        <v>0.01476085160971452</v>
+        <v>0.01935875300569899</v>
       </c>
     </row>
   </sheetData>
